--- a/data/trans_dic/P33b_R4-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,67</t>
+          <t>2,25; 7,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,85</t>
+          <t>5,75; 10,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,74</t>
+          <t>4,33; 7,81</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 10,52</t>
+          <t>5,31; 10,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 16,91</t>
+          <t>11,39; 16,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,12; 12,84</t>
+          <t>9,14; 12,83</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,83; 20,71</t>
+          <t>12,9; 20,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 23,49</t>
+          <t>16,8; 23,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 21,25</t>
+          <t>15,88; 21,16</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,62; 24,59</t>
+          <t>13,64; 24,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,98; 29,68</t>
+          <t>20,71; 29,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,36; 25,87</t>
+          <t>18,9; 25,56</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,39; 12,17</t>
+          <t>5,51; 11,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,22; 14,99</t>
+          <t>9,01; 14,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,12</t>
+          <t>8,18; 12,4</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,26; 19,19</t>
+          <t>11,45; 18,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,03; 28,11</t>
+          <t>20,17; 28,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,84; 22,17</t>
+          <t>16,87; 22,2</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,16; 17,95</t>
+          <t>11,08; 17,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,18; 28,79</t>
+          <t>14,39; 28,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,84; 22,23</t>
+          <t>14,98; 22,17</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,25; 22,31</t>
+          <t>16,12; 22,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,52; 34,21</t>
+          <t>28,54; 34,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,62; 27,79</t>
+          <t>22,66; 27,74</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,66; 15,38</t>
+          <t>12,85; 15,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,95; 23,38</t>
+          <t>19,83; 23,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,02; 19,14</t>
+          <t>17,1; 19,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R4-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,14</t>
+          <t>1,97; 6,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 10,57</t>
+          <t>5,62; 10,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,81</t>
+          <t>4,38; 7,74</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,44</t>
+          <t>5,05; 10,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,39; 16,79</t>
+          <t>11,27; 16,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,14; 12,83</t>
+          <t>9,12; 12,84</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,9; 20,9</t>
+          <t>12,83; 20,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 23,86</t>
+          <t>16,75; 23,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,88; 21,16</t>
+          <t>15,82; 21,25</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,64; 24,25</t>
+          <t>13,62; 24,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,71; 29,66</t>
+          <t>20,98; 29,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 25,56</t>
+          <t>19,36; 25,87</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,39</t>
+          <t>5,39; 12,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 14,91</t>
+          <t>9,22; 14,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,4</t>
+          <t>8,03; 12,12</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,45; 18,98</t>
+          <t>11,26; 19,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,17; 28,05</t>
+          <t>20,03; 28,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,87; 22,2</t>
+          <t>16,84; 22,17</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,08; 17,69</t>
+          <t>11,16; 17,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,39; 28,85</t>
+          <t>14,18; 28,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,98; 22,17</t>
+          <t>14,84; 22,23</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,12; 22,65</t>
+          <t>15,25; 22,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,54; 34,87</t>
+          <t>28,52; 34,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,66; 27,74</t>
+          <t>22,62; 27,79</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,85; 15,43</t>
+          <t>12,66; 15,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,83; 23,35</t>
+          <t>19,95; 23,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,1; 19,26</t>
+          <t>17,02; 19,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R4-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,74%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,67</t>
+          <t>1,9; 6,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,85</t>
+          <t>5,61; 11,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,74</t>
+          <t>4,2; 7,58</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,56%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 10,52</t>
+          <t>4,85; 10,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 16,91</t>
+          <t>11,25; 16,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,12; 12,84</t>
+          <t>8,9; 12,6</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>18,21%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,83; 20,71</t>
+          <t>12,75; 20,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 23,49</t>
+          <t>16,68; 23,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 21,25</t>
+          <t>15,67; 21,12</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>19,86%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,62; 24,59</t>
+          <t>13,44; 24,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,98; 29,68</t>
+          <t>12,15; 26,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,36; 25,87</t>
+          <t>14,9; 23,79</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>10,0%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,39; 12,17</t>
+          <t>5,35; 12,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,22; 14,99</t>
+          <t>9,27; 14,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,12</t>
+          <t>8,07; 12,13</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,26; 19,19</t>
+          <t>11,04; 18,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,03; 28,11</t>
+          <t>20,05; 28,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,84; 22,17</t>
+          <t>16,65; 21,89</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>17,9%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,16; 17,95</t>
+          <t>11,05; 18,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,18; 28,79</t>
+          <t>9,87; 28,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,84; 22,23</t>
+          <t>11,43; 21,65</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>22,62%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,25; 22,31</t>
+          <t>7,05; 21,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,52; 34,21</t>
+          <t>29,01; 34,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,62; 27,79</t>
+          <t>14,08; 27,42</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>16,81%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,66; 15,38</t>
+          <t>9,95; 14,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,95; 23,38</t>
+          <t>17,08; 22,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,02; 19,14</t>
+          <t>14,35; 18,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R4-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,44</t>
+          <t>1,99; 6,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 11,07</t>
+          <t>5,42; 10,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,58</t>
+          <t>4,12; 7,68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 10,18</t>
+          <t>4,87; 9,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 16,77</t>
+          <t>11,41; 16,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,9; 12,6</t>
+          <t>8,79; 12,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,75; 20,84</t>
+          <t>12,71; 20,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 23,46</t>
+          <t>16,79; 23,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,67; 21,12</t>
+          <t>15,66; 21,03</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,44; 24,59</t>
+          <t>14,05; 24,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 26,89</t>
+          <t>12,39; 26,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,9; 23,79</t>
+          <t>14,87; 24,0</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 12,09</t>
+          <t>5,39; 11,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,27; 14,93</t>
+          <t>8,81; 14,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,13</t>
+          <t>8,06; 12,21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,04; 18,91</t>
+          <t>10,96; 18,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,05; 28,11</t>
+          <t>20,12; 28,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,65; 21,89</t>
+          <t>16,68; 22,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,05; 18,1</t>
+          <t>11,2; 18,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,87; 28,65</t>
+          <t>10,77; 28,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,43; 21,65</t>
+          <t>10,61; 21,34</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,05; 21,85</t>
+          <t>6,89; 21,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,01; 34,59</t>
+          <t>28,82; 34,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,08; 27,42</t>
+          <t>13,93; 27,28</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,33</t>
+          <t>10,08; 14,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,08; 22,48</t>
+          <t>16,39; 22,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,35; 18,03</t>
+          <t>14,63; 18,19</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente cansado cuando despierta por la mañana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12035</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22483</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>34518</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6198; 20384</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15711; 30991</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24776; 46186</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>37713</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>71387</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>109100</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25224; 50353</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>58697; 85846</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>90803; 128982</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>51202</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>69552</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>120754</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39923; 65089</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>58610; 82627</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>103831; 139495</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>57274</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>99221</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>156495</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>43916; 75903</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>58884; 128080</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>117129; 189122</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14306</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24403</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>38709</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9636; 20819</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>18349; 30479</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>31185; 47254</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>38658</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>62035</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>100693</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>29547; 49361</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>51716; 72627</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>87856; 117147</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>87535</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>176016</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>263550</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>69813; 113274</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>91490; 238398</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>156231; 314252</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>144085</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>227859</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>371943</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>64007; 203204</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>206160; 248463</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>228958; 448500</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1248</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>442807</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>752955</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1195762</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>348477; 498536</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>599641; 820833</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1040709; 1293965</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>